--- a/main/ExamQuestionsLecure13.xlsx
+++ b/main/ExamQuestionsLecure13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEO309\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8C579D-72F8-418E-8A47-110AD8399F2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C093902-C026-4227-9FE4-880B4C6242E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11952" xr2:uid="{7B30B9D5-F944-4DC7-BB71-4FEBCEA1AEDA}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>What is overexploitation?</t>
   </si>
   <si>
     <t>What is habitat lost?</t>
-  </si>
-  <si>
-    <t>Explain the chain of actions and reactions that are triggered from people to impacts on biodiversity?</t>
   </si>
   <si>
     <t>What is a trhophic cascade?</t>
@@ -410,7 +407,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -447,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -455,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -463,15 +460,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
